--- a/assets/excelTemplate/departTableNameImportTemplate.xlsx
+++ b/assets/excelTemplate/departTableNameImportTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12390" windowHeight="11415"/>
+    <workbookView windowWidth="22200" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,20 +17,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>说明：
-1.数源单位：省直部门需填写全程并加上“广东省”前缀，如“广东省司法厅”
+1.上报单位：省直部门需填写全程并加上“广东省”前缀，如“广东省司法厅”
 2.数据元分类号：取值范围：'G1010', 'G1020', 'Y2010', 'Y2020', 'Y2030', 'Y3010', 'Y4010', 'Z2010', 'Z2020', 'Z2030', 'Z2050', 'Z3010', 'F1010', 'F1011', 'F1012', 'F1016', 'F2010', 'F2020', 'F3010', 'F3011', 'D1010', 'D1020', 'D1030', 'D1040', 'C1010', 'C2010', 'C2011', 'C2020', 'C2030', 'C2040', 'C2050', 'C2051', 'C2060', 'C2070', 'C2080', 'C2100', 'C2090', 'C3010', 'C3011', 'C3020', 'C3030', 'C3040', 'C4010', 'C4110', 'C6010', 'C6020', 'C6030', 'C6040', 'C7090', 'DATA_CHECK'</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数源单位</t>
-    </r>
+    <t>上报单位</t>
   </si>
   <si>
     <t>数据元分类号</t>
@@ -1231,7 +1222,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
